--- a/MergedResults.xlsx
+++ b/MergedResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>User</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>Is Z Done?</t>
+  </si>
+  <si>
+    <t>User-Modified</t>
+  </si>
+  <si>
+    <t>Is X Done?-Modified</t>
+  </si>
+  <si>
+    <t>Is Y done?-Modified</t>
+  </si>
+  <si>
+    <t>Is Z Done?-Modified</t>
   </si>
   <si>
     <t>Created Date</t>
@@ -376,7 +388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,7 +396,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,294 +412,306 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/MergedResults.xlsx
+++ b/MergedResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>User</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>2016-08</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2016-12</t>
   </si>
 </sst>
 </file>
@@ -388,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,13 +442,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -447,13 +468,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -464,13 +494,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -481,13 +520,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -498,13 +546,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -515,13 +572,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -532,13 +598,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -549,13 +624,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -566,13 +650,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -583,13 +676,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -600,13 +702,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -617,13 +728,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -634,13 +754,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -651,13 +780,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -668,13 +806,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -685,13 +832,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -705,13 +858,1319 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
